--- a/01-Produtos.xlsx
+++ b/01-Produtos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Front - Back\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA7967-F363-4D8A-A3D8-1508296124E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1BB1F-52DF-4109-80C0-02CDAA1B1671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="11505" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabela de Produtos" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,22 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Calça</t>
-  </si>
-  <si>
-    <t>Vestido</t>
-  </si>
-  <si>
-    <t>Óculos</t>
-  </si>
-  <si>
-    <t>Jaqueta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="23">
   <si>
     <t>Bermuda</t>
   </si>
@@ -73,13 +59,60 @@
   </si>
   <si>
     <t>Camiseta Lisa</t>
+  </si>
+  <si>
+    <t>Produtos</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Preço Unitário</t>
+  </si>
+  <si>
+    <t>Vestuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Óculos </t>
+  </si>
+  <si>
+    <t>Acessórios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaqueta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestido </t>
+  </si>
+  <si>
+    <t>Calçado</t>
+  </si>
+  <si>
+    <t>Meteora</t>
+  </si>
+  <si>
+    <t>Qtde.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +128,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -112,23 +179,275 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -139,6 +458,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5C2F-2ED0-4132-A755-33287BFED071}" name="Tabela3" displayName="Tabela3" ref="A3:E23" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A3:E23" xr:uid="{DD085341-96D5-448C-ACB6-B9B20E85FF90}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B3BB856A-94C5-4DBF-A426-729A6175E54C}" name="Produtos"/>
+    <tableColumn id="2" xr3:uid="{57EE2957-B617-4F1F-99BF-A943B55BA5EF}" name="Tamanho" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3EC27319-A449-4A3F-BC2A-10D434BF2077}" name="Categoria"/>
+    <tableColumn id="4" xr3:uid="{A4DC478E-BD53-452B-A86C-6BBB49DC23EB}" name="Preço Unitário" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde." dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,188 +771,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E7D90-B6FA-4067-AF2F-B7057AE08EDA}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20">
+        <v>25.9</v>
+      </c>
+      <c r="E4" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19">
+        <v>29.9</v>
+      </c>
+      <c r="E5" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19">
+        <v>32.9</v>
+      </c>
+      <c r="E6" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="19">
+        <v>399.9</v>
+      </c>
+      <c r="E7" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="19">
+        <v>249.9</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="19">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="19">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="19">
+        <v>85.9</v>
+      </c>
+      <c r="E11" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19">
+        <v>89.9</v>
+      </c>
+      <c r="E12" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="19">
+        <v>92.9</v>
+      </c>
+      <c r="E13" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19">
+        <v>149.9</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="19">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E15" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E16" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E17" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="19">
+        <v>199.9</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="19">
+        <v>249.9</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="19">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="19">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="19">
+        <v>39.9</v>
+      </c>
+      <c r="E22" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="21">
+        <v>49.9</v>
+      </c>
+      <c r="E23" s="24">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0CD1F7-659F-45E8-8041-4358EDC7BD47}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="25">
+        <v>25.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="25">
+        <v>29.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="25">
+        <v>32.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="25">
+        <v>399.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="25">
+        <v>249.9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="25">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="25">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="25">
+        <v>85.9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="25">
+        <v>89.9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="25">
+        <v>92.9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="25">
+        <v>149.9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="25">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="25">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E17" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="25">
+        <v>199.9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="25">
+        <v>249.9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="25">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="25">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="25">
+        <v>39.9</v>
+      </c>
+      <c r="E22" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="25">
+        <v>49.9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/01-Produtos.xlsx
+++ b/01-Produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Front - Back\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1BB1F-52DF-4109-80C0-02CDAA1B1671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B22918-CBF8-4DFE-9627-5E3DD0E1BFF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="11505" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="11505" activeTab="1" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>Bermuda</t>
   </si>
@@ -91,10 +91,38 @@
     <t>Calçado</t>
   </si>
   <si>
-    <t>Meteora</t>
-  </si>
-  <si>
     <t>Qtde.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meteora </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(com tabela)</t>
+    </r>
+  </si>
+  <si>
+    <t>Meteora (sem tabela)</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>Totais</t>
+  </si>
+  <si>
+    <t>Desconto</t>
+  </si>
+  <si>
+    <t>Valor de Desconto</t>
   </si>
 </sst>
 </file>
@@ -103,9 +131,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +172,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -171,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -300,21 +344,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -353,12 +382,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,45 +540,105 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -444,9 +662,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -461,14 +676,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5C2F-2ED0-4132-A755-33287BFED071}" name="Tabela3" displayName="Tabela3" ref="A3:E23" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A3:E23" xr:uid="{DD085341-96D5-448C-ACB6-B9B20E85FF90}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3BB856A-94C5-4DBF-A426-729A6175E54C}" name="Produtos"/>
-    <tableColumn id="2" xr3:uid="{57EE2957-B617-4F1F-99BF-A943B55BA5EF}" name="Tamanho" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3EC27319-A449-4A3F-BC2A-10D434BF2077}" name="Categoria"/>
-    <tableColumn id="4" xr3:uid="{A4DC478E-BD53-452B-A86C-6BBB49DC23EB}" name="Preço Unitário" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde." dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5C2F-2ED0-4132-A755-33287BFED071}" name="Tabela3" displayName="Tabela3" ref="A3:G24" totalsRowCount="1" headerRowDxfId="12">
+  <autoFilter ref="A3:G23" xr:uid="{DD085341-96D5-448C-ACB6-B9B20E85FF90}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B3BB856A-94C5-4DBF-A426-729A6175E54C}" name="Produtos" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{57EE2957-B617-4F1F-99BF-A943B55BA5EF}" name="Tamanho" dataDxfId="11" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3EC27319-A449-4A3F-BC2A-10D434BF2077}" name="Categoria" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A4DC478E-BD53-452B-A86C-6BBB49DC23EB}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde." totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D884E988-6577-4BED-AA7D-358FDCE039D6}" name="Valor Total" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="3">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{FC1C4EC2-D807-40BF-ABDA-2A64A12A1AC9}" name="Valor de Desconto" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="4">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Valor Total]]*$M$3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -771,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E7D90-B6FA-4067-AF2F-B7057AE08EDA}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,60 +1004,80 @@
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19">
         <v>25.9</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="19">
+        <f>D4*E4</f>
+        <v>310.79999999999995</v>
+      </c>
+      <c r="G4" s="19">
+        <f>F4*$D$25</f>
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -846,14 +1087,22 @@
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>29.9</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="21">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="19">
+        <f t="shared" ref="F5:G24" si="0">D5*E5</f>
+        <v>299</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" ref="G5:G23" si="1">F5*$D$25</f>
+        <v>14.950000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -863,14 +1112,22 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>32.9</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>197.39999999999998</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="1"/>
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -880,14 +1137,22 @@
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>399.9</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
+        <v>1199.6999999999998</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="1"/>
+        <v>59.984999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -897,14 +1162,22 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>249.9</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="19">
+        <f t="shared" si="0"/>
+        <v>249.9</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="1"/>
+        <v>12.495000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -914,14 +1187,22 @@
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>259.89999999999998</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>519.79999999999995</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="1"/>
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -931,14 +1212,22 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>299.89999999999998</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
+        <v>14.994999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -948,14 +1237,22 @@
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>85.9</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="19">
+        <f t="shared" si="0"/>
+        <v>687.2</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="1"/>
+        <v>34.360000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -965,14 +1262,22 @@
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>89.9</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="19">
+        <f t="shared" si="0"/>
+        <v>449.5</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="1"/>
+        <v>22.475000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -982,14 +1287,22 @@
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>92.9</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>557.40000000000009</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="1"/>
+        <v>27.870000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -999,14 +1312,22 @@
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>149.9</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="19">
+        <f t="shared" si="0"/>
+        <v>299.8</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="1"/>
+        <v>14.990000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -1016,14 +1337,22 @@
       <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>65.900000000000006</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="19">
+        <f t="shared" si="0"/>
+        <v>790.80000000000007</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" si="1"/>
+        <v>39.540000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
@@ -1033,14 +1362,22 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>69.900000000000006</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="19">
+        <f t="shared" si="0"/>
+        <v>1048.5</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="1"/>
+        <v>52.425000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -1050,14 +1387,22 @@
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>70.900000000000006</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="19">
+        <f t="shared" si="0"/>
+        <v>921.7</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="1"/>
+        <v>46.085000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
@@ -1067,14 +1412,22 @@
       <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>199.9</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="19">
+        <f t="shared" si="0"/>
+        <v>399.8</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="1"/>
+        <v>19.990000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1084,14 +1437,22 @@
       <c r="C19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>249.9</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="19">
+        <f t="shared" si="0"/>
+        <v>249.9</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="1"/>
+        <v>12.495000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
@@ -1101,14 +1462,22 @@
       <c r="C20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>259.89999999999998</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
@@ -1118,14 +1487,22 @@
       <c r="C21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>259.89999999999998</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="19">
+        <f t="shared" si="0"/>
+        <v>259.89999999999998</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="1"/>
+        <v>12.994999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -1135,14 +1512,22 @@
       <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>39.9</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="19">
+        <f t="shared" si="0"/>
+        <v>438.9</v>
+      </c>
+      <c r="G22" s="19">
+        <f t="shared" si="1"/>
+        <v>21.945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
@@ -1152,16 +1537,67 @@
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="26">
         <v>49.9</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="27">
         <v>21</v>
       </c>
+      <c r="F23" s="28">
+        <f t="shared" si="0"/>
+        <v>1047.8999999999999</v>
+      </c>
+      <c r="G23" s="19">
+        <f t="shared" si="1"/>
+        <v>52.394999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="29">
+        <f>SUM(D4:D23)</f>
+        <v>2983.0000000000009</v>
+      </c>
+      <c r="E24" s="30">
+        <f>SUM(E4:E23)</f>
+        <v>132</v>
+      </c>
+      <c r="F24" s="31">
+        <f>SUM(F4:F23)</f>
+        <v>10227.799999999999</v>
+      </c>
+      <c r="G24" s="31">
+        <f>SUM(G4:G23)</f>
+        <v>511.39000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1170,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0CD1F7-659F-45E8-8041-4358EDC7BD47}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,25 +1619,31 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1215,10 +1657,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1228,14 +1682,22 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>25.9</v>
       </c>
       <c r="E4" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>310.79999999999995</v>
+      </c>
+      <c r="G4" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1245,14 +1707,22 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <v>29.9</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>299</v>
+      </c>
+      <c r="G5" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>14.950000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1262,14 +1732,22 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>32.9</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>197.39999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1279,14 +1757,22 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>399.9</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>1199.6999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>59.984999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1296,14 +1782,22 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <v>249.9</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>249.9</v>
+      </c>
+      <c r="G8" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>12.495000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1313,14 +1807,22 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>259.89999999999998</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>519.79999999999995</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1330,14 +1832,22 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>299.89999999999998</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>299.89999999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>14.994999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1347,14 +1857,22 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="22">
         <v>85.9</v>
       </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>687.2</v>
+      </c>
+      <c r="G11" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>34.360000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1364,14 +1882,22 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>89.9</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>449.5</v>
+      </c>
+      <c r="G12" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>22.475000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1381,14 +1907,22 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>92.9</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>557.40000000000009</v>
+      </c>
+      <c r="G13" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>27.870000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1398,14 +1932,22 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="22">
         <v>149.9</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>299.8</v>
+      </c>
+      <c r="G14" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>14.990000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1415,14 +1957,22 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>65.900000000000006</v>
       </c>
       <c r="E15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>790.80000000000007</v>
+      </c>
+      <c r="G15" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>39.540000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1432,14 +1982,22 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>69.900000000000006</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>1048.5</v>
+      </c>
+      <c r="G16" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>52.425000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1449,14 +2007,22 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <v>70.900000000000006</v>
       </c>
       <c r="E17" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>921.7</v>
+      </c>
+      <c r="G17" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>46.085000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1466,14 +2032,22 @@
       <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="22">
         <v>199.9</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>399.8</v>
+      </c>
+      <c r="G18" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>19.990000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1483,14 +2057,22 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>249.9</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>249.9</v>
+      </c>
+      <c r="G19" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>12.495000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1500,14 +2082,22 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="22">
         <v>259.89999999999998</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1517,14 +2107,22 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="22">
         <v>259.89999999999998</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>259.89999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>12.994999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1534,14 +2132,22 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="22">
         <v>39.9</v>
       </c>
       <c r="E22" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>438.9</v>
+      </c>
+      <c r="G22" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>21.945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1551,16 +2157,44 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="22">
         <v>49.9</v>
       </c>
       <c r="E23" s="1">
         <v>21</v>
       </c>
+      <c r="F23" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <v>1047.8999999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+        <v>52.394999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="22">
+        <f>SUBTOTAL(109,Tabela3[Preço Unitário])</f>
+        <v>2983.0000000000009</v>
+      </c>
+      <c r="E24" s="1">
+        <f>SUBTOTAL(109,Tabela3[Qtde.])</f>
+        <v>132</v>
+      </c>
+      <c r="F24" s="36">
+        <f>SUBTOTAL(109,Tabela3[Valor Total])</f>
+        <v>10227.799999999999</v>
+      </c>
+      <c r="G24" s="36">
+        <f>SUBTOTAL(109,Tabela3[Valor de Desconto])</f>
+        <v>511.39000000000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/01-Produtos.xlsx
+++ b/01-Produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Front - Back\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B22918-CBF8-4DFE-9627-5E3DD0E1BFF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DBA544-8A7F-4943-9066-F73B093864D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="11505" activeTab="1" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="23070" windowHeight="11505" activeTab="1" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>Desconto</t>
   </si>
   <si>
-    <t>Valor de Desconto</t>
+    <t>Valor do Desconto</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +188,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +222,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -432,7 +452,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -442,8 +464,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -453,7 +479,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -462,6 +490,30 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,40 +521,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -564,7 +601,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,31 +620,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -606,16 +641,7 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -633,6 +659,16 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -679,16 +715,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5C2F-2ED0-4132-A755-33287BFED071}" name="Tabela3" displayName="Tabela3" ref="A3:G24" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A3:G23" xr:uid="{DD085341-96D5-448C-ACB6-B9B20E85FF90}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B3BB856A-94C5-4DBF-A426-729A6175E54C}" name="Produtos" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{57EE2957-B617-4F1F-99BF-A943B55BA5EF}" name="Tamanho" dataDxfId="11" totalsRowDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3EC27319-A449-4A3F-BC2A-10D434BF2077}" name="Categoria" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A4DC478E-BD53-452B-A86C-6BBB49DC23EB}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde." totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{D884E988-6577-4BED-AA7D-358FDCE039D6}" name="Valor Total" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{B3BB856A-94C5-4DBF-A426-729A6175E54C}" name="Produtos" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{57EE2957-B617-4F1F-99BF-A943B55BA5EF}" name="Tamanho" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3EC27319-A449-4A3F-BC2A-10D434BF2077}" name="Categoria" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A4DC478E-BD53-452B-A86C-6BBB49DC23EB}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde." totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D884E988-6577-4BED-AA7D-358FDCE039D6}" name="Valor Total" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC1C4EC2-D807-40BF-ABDA-2A64A12A1AC9}" name="Valor de Desconto" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="4">
-      <calculatedColumnFormula>Tabela3[[#This Row],[Valor Total]]*$M$3</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{FC1C4EC2-D807-40BF-ABDA-2A64A12A1AC9}" name="Valor do Desconto" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Valor Total]]*$I$4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -992,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E7D90-B6FA-4067-AF2F-B7057AE08EDA}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,20 +1043,21 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1029,7 +1066,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1051,8 +1088,11 @@
       <c r="G3" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -1073,11 +1113,14 @@
         <v>310.79999999999995</v>
       </c>
       <c r="G4" s="19">
-        <f>F4*$D$25</f>
+        <f>F4*$I$4</f>
         <v>15.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1094,15 +1137,15 @@
         <v>10</v>
       </c>
       <c r="F5" s="19">
-        <f t="shared" ref="F5:G24" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F23" si="0">D5*E5</f>
         <v>299</v>
       </c>
       <c r="G5" s="19">
-        <f t="shared" ref="G5:G23" si="1">F5*$D$25</f>
+        <f t="shared" ref="G5:G23" si="1">F5*$I$4</f>
         <v>14.950000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1170,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1195,7 @@
         <v>59.984999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1220,7 @@
         <v>12.495000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1245,7 @@
         <v>25.99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1227,7 +1270,7 @@
         <v>14.994999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1295,7 @@
         <v>34.360000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +1320,7 @@
         <v>22.475000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1345,7 @@
         <v>27.870000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1327,7 +1370,7 @@
         <v>14.990000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1395,7 @@
         <v>39.540000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
@@ -1537,13 +1580,13 @@
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="23">
         <v>49.9</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="24">
         <v>21</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="25">
         <f t="shared" si="0"/>
         <v>1047.8999999999999</v>
       </c>
@@ -1552,40 +1595,37 @@
         <v>52.394999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="29">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="26">
         <f>SUM(D4:D23)</f>
         <v>2983.0000000000009</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E25" s="27">
         <f>SUM(E4:E23)</f>
         <v>132</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F25" s="28">
         <f>SUM(F4:F23)</f>
         <v>10227.799999999999</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G25" s="28">
         <f>SUM(G4:G23)</f>
         <v>511.39000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" s="22"/>
@@ -1593,10 +1633,8 @@
       <c r="G27" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A24:C24"/>
+  <mergeCells count="2">
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1606,10 +1644,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0CD1F7-659F-45E8-8041-4358EDC7BD47}">
-  <dimension ref="A1:M24"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,20 +1662,21 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1643,7 +1685,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1665,14 +1707,11 @@
       <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="35">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1692,12 +1731,15 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>310.79999999999995</v>
       </c>
-      <c r="G4" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G4" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>15.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I4" s="34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1717,12 +1759,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>299</v>
       </c>
-      <c r="G5" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G5" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>14.950000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1742,12 +1784,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>197.39999999999998</v>
       </c>
-      <c r="G6" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G6" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1767,12 +1809,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>1199.6999999999998</v>
       </c>
-      <c r="G7" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G7" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>59.984999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1792,12 +1834,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>249.9</v>
       </c>
-      <c r="G8" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G8" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>12.495000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1817,12 +1859,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>519.79999999999995</v>
       </c>
-      <c r="G9" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G9" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>25.99</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1842,12 +1884,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>299.89999999999998</v>
       </c>
-      <c r="G10" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G10" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>14.994999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1867,12 +1909,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>687.2</v>
       </c>
-      <c r="G11" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G11" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>34.360000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1892,12 +1934,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>449.5</v>
       </c>
-      <c r="G12" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G12" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>22.475000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1917,12 +1959,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>557.40000000000009</v>
       </c>
-      <c r="G13" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G13" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>27.870000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1942,12 +1984,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>299.8</v>
       </c>
-      <c r="G14" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G14" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>14.990000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1967,12 +2009,12 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>790.80000000000007</v>
       </c>
-      <c r="G15" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G15" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>39.540000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1992,8 +2034,8 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>1048.5</v>
       </c>
-      <c r="G16" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G16" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>52.425000000000004</v>
       </c>
     </row>
@@ -2017,8 +2059,8 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>921.7</v>
       </c>
-      <c r="G17" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G17" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>46.085000000000008</v>
       </c>
     </row>
@@ -2042,8 +2084,8 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>399.8</v>
       </c>
-      <c r="G18" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G18" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>19.990000000000002</v>
       </c>
     </row>
@@ -2067,8 +2109,8 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>249.9</v>
       </c>
-      <c r="G19" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G19" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>12.495000000000001</v>
       </c>
     </row>
@@ -2092,8 +2134,8 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G20" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>0</v>
       </c>
     </row>
@@ -2117,8 +2159,8 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G21" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G21" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>12.994999999999999</v>
       </c>
     </row>
@@ -2142,8 +2184,8 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>438.9</v>
       </c>
-      <c r="G22" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G22" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>21.945</v>
       </c>
     </row>
@@ -2167,8 +2209,8 @@
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
         <v>1047.8999999999999</v>
       </c>
-      <c r="G23" s="1">
-        <f>Tabela3[[#This Row],[Valor Total]]*$M$3</f>
+      <c r="G23" s="29">
+        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>52.394999999999996</v>
       </c>
     </row>
@@ -2183,12 +2225,12 @@
         <f>SUBTOTAL(109,Tabela3[Qtde.])</f>
         <v>132</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="29">
         <f>SUBTOTAL(109,Tabela3[Valor Total])</f>
         <v>10227.799999999999</v>
       </c>
-      <c r="G24" s="36">
-        <f>SUBTOTAL(109,Tabela3[Valor de Desconto])</f>
+      <c r="G24" s="29">
+        <f>SUBTOTAL(109,Tabela3[Valor do Desconto])</f>
         <v>511.39000000000004</v>
       </c>
     </row>
@@ -2197,7 +2239,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/01-Produtos.xlsx
+++ b/01-Produtos.xlsx
@@ -2,21 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Front - Back\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DBA544-8A7F-4943-9066-F73B093864D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC8017-D78D-4C26-9D20-149EC9D42681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="23070" windowHeight="11505" activeTab="1" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="23070" windowHeight="11505" activeTab="2" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabela de Produtos" sheetId="3" r:id="rId2"/>
+    <sheet name="Gráfico-Produtos" sheetId="8" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="7" r:id="rId3"/>
+    <sheet name="Tabela de Produtos" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="30" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
   <si>
     <t>Bermuda</t>
   </si>
@@ -123,6 +128,21 @@
   </si>
   <si>
     <t>Valor do Desconto</t>
+  </si>
+  <si>
+    <t>Qtde</t>
+  </si>
+  <si>
+    <t>Soma de Qtde.</t>
+  </si>
+  <si>
+    <t>Selecionar Gráfico → Mover Gráfico</t>
+  </si>
+  <si>
+    <t>Design → Mudar o gráfico</t>
+  </si>
+  <si>
+    <t>Layout Rapido</t>
   </si>
 </sst>
 </file>
@@ -553,7 +573,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,15 +634,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,6 +644,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -711,6 +733,1488 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[01-Produtos.xlsx]Planilha3!Tabela dinâmica17</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Soma de Produtos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:glow rad="63500">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha3!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Bermuda</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bolsa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Boné</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Calça </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camiseta Lisa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cinto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jaqueta </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Óculos </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tênis</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Vestido </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha3!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCEB-49F4-9701-6B33255DDC59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="729047503"/>
+        <c:axId val="723182671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="729047503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723182671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="723182671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729047503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{41D57B8E-F908-43AF-ACBE-F4507F5C8D5D}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="101" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9647599" cy="6016782"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52E7531-4833-48CD-9236-08E48246BD2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rafa RPG" refreshedDate="45465.701305092596" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{84BDBEC6-9621-4193-B194-892E94979D5B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:G23" sheet="Produtos"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Produtos" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Camiseta Lisa"/>
+        <s v="Óculos "/>
+        <s v="Jaqueta "/>
+        <s v="Calça "/>
+        <s v="Vestido "/>
+        <s v="Bermuda"/>
+        <s v="Tênis"/>
+        <s v="Bolsa"/>
+        <s v="Boné"/>
+        <s v="Cinto"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tamanho" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="36" maxValue="38"/>
+    </cacheField>
+    <cacheField name="Categoria" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Preço Unitário" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="25.9" maxValue="399.9"/>
+    </cacheField>
+    <cacheField name="Qtde." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="21"/>
+    </cacheField>
+    <cacheField name="Valor Total" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1199.6999999999998"/>
+    </cacheField>
+    <cacheField name="Valor do Desconto" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="59.984999999999992"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <x v="0"/>
+    <s v="P"/>
+    <s v="Vestuário"/>
+    <n v="25.9"/>
+    <n v="12"/>
+    <n v="310.79999999999995"/>
+    <n v="15.54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="M"/>
+    <s v="Vestuário"/>
+    <n v="29.9"/>
+    <n v="10"/>
+    <n v="299"/>
+    <n v="14.950000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="G"/>
+    <s v="Vestuário"/>
+    <n v="32.9"/>
+    <n v="6"/>
+    <n v="197.39999999999998"/>
+    <n v="9.8699999999999992"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Único"/>
+    <s v="Acessórios"/>
+    <n v="399.9"/>
+    <n v="3"/>
+    <n v="1199.6999999999998"/>
+    <n v="59.984999999999992"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="P"/>
+    <s v="Vestuário"/>
+    <n v="249.9"/>
+    <n v="1"/>
+    <n v="249.9"/>
+    <n v="12.495000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="M"/>
+    <s v="Vestuário"/>
+    <n v="259.89999999999998"/>
+    <n v="2"/>
+    <n v="519.79999999999995"/>
+    <n v="25.99"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="G"/>
+    <s v="Vestuário"/>
+    <n v="299.89999999999998"/>
+    <n v="1"/>
+    <n v="299.89999999999998"/>
+    <n v="14.994999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="P"/>
+    <s v="Vestuário"/>
+    <n v="85.9"/>
+    <n v="8"/>
+    <n v="687.2"/>
+    <n v="34.360000000000007"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="M"/>
+    <s v="Vestuário"/>
+    <n v="89.9"/>
+    <n v="5"/>
+    <n v="449.5"/>
+    <n v="22.475000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="G"/>
+    <s v="Vestuário"/>
+    <n v="92.9"/>
+    <n v="6"/>
+    <n v="557.40000000000009"/>
+    <n v="27.870000000000005"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Único"/>
+    <s v="Vestuário"/>
+    <n v="149.9"/>
+    <n v="2"/>
+    <n v="299.8"/>
+    <n v="14.990000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="P"/>
+    <s v="Vestuário"/>
+    <n v="65.900000000000006"/>
+    <n v="12"/>
+    <n v="790.80000000000007"/>
+    <n v="39.540000000000006"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="M"/>
+    <s v="Vestuário"/>
+    <n v="69.900000000000006"/>
+    <n v="15"/>
+    <n v="1048.5"/>
+    <n v="52.425000000000004"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="G"/>
+    <s v="Vestuário"/>
+    <n v="70.900000000000006"/>
+    <n v="13"/>
+    <n v="921.7"/>
+    <n v="46.085000000000008"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="36"/>
+    <s v="Calçado"/>
+    <n v="199.9"/>
+    <n v="2"/>
+    <n v="399.8"/>
+    <n v="19.990000000000002"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="37"/>
+    <s v="Calçado"/>
+    <n v="249.9"/>
+    <n v="1"/>
+    <n v="249.9"/>
+    <n v="12.495000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="38"/>
+    <s v="Calçado"/>
+    <n v="259.89999999999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Único"/>
+    <s v="Acessórios"/>
+    <n v="259.89999999999998"/>
+    <n v="1"/>
+    <n v="259.89999999999998"/>
+    <n v="12.994999999999999"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="Único"/>
+    <s v="Acessórios"/>
+    <n v="39.9"/>
+    <n v="11"/>
+    <n v="438.9"/>
+    <n v="21.945"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Único"/>
+    <s v="Acessórios"/>
+    <n v="49.9"/>
+    <n v="21"/>
+    <n v="1047.8999999999999"/>
+    <n v="52.394999999999996"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBDBE488-3B1B-40A8-A9CB-84B68462659D}" name="Tabela dinâmica17" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Qtde." fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5C2F-2ED0-4132-A755-33287BFED071}" name="Tabela3" displayName="Tabela3" ref="A3:G24" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A3:G23" xr:uid="{DD085341-96D5-448C-ACB6-B9B20E85FF90}"/>
@@ -719,9 +2223,9 @@
     <tableColumn id="2" xr3:uid="{57EE2957-B617-4F1F-99BF-A943B55BA5EF}" name="Tamanho" dataDxfId="11" totalsRowDxfId="5"/>
     <tableColumn id="3" xr3:uid="{3EC27319-A449-4A3F-BC2A-10D434BF2077}" name="Categoria" totalsRowDxfId="4"/>
     <tableColumn id="4" xr3:uid="{A4DC478E-BD53-452B-A86C-6BBB49DC23EB}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde." totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2"/>
     <tableColumn id="6" xr3:uid="{D884E988-6577-4BED-AA7D-358FDCE039D6}" name="Valor Total" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1">
-      <calculatedColumnFormula>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{FC1C4EC2-D807-40BF-ABDA-2A64A12A1AC9}" name="Valor do Desconto" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela3[[#This Row],[Valor Total]]*$I$4</calculatedColumnFormula>
@@ -1030,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E7D90-B6FA-4067-AF2F-B7057AE08EDA}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" activeCellId="1" sqref="A3:A23 E3:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,15 +2551,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
@@ -1088,7 +2592,7 @@
       <c r="G3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1116,7 +2620,7 @@
         <f>F4*$I$4</f>
         <v>15.54</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="33">
         <v>0.05</v>
       </c>
     </row>
@@ -1605,11 +3109,11 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="26">
         <f>SUM(D4:D23)</f>
         <v>2983.0000000000009</v>
@@ -1643,14 +3147,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE3DD-79DC-4C6F-86EE-0CA56541D5E9}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="38">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0CD1F7-659F-45E8-8041-4358EDC7BD47}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E3" activeCellId="1" sqref="A3:A23 E3:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,15 +3286,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1699,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>24</v>
@@ -1707,7 +3327,7 @@
       <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="30" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1728,14 +3348,14 @@
         <v>12</v>
       </c>
       <c r="F4" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>310.79999999999995</v>
       </c>
       <c r="G4" s="29">
         <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
         <v>15.54</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="31">
         <v>0.05</v>
       </c>
     </row>
@@ -1756,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>299</v>
       </c>
       <c r="G5" s="29">
@@ -1781,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>197.39999999999998</v>
       </c>
       <c r="G6" s="29">
@@ -1806,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>1199.6999999999998</v>
       </c>
       <c r="G7" s="29">
@@ -1831,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>249.9</v>
       </c>
       <c r="G8" s="29">
@@ -1856,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>519.79999999999995</v>
       </c>
       <c r="G9" s="29">
@@ -1881,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>299.89999999999998</v>
       </c>
       <c r="G10" s="29">
@@ -1906,7 +3526,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>687.2</v>
       </c>
       <c r="G11" s="29">
@@ -1931,7 +3551,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>449.5</v>
       </c>
       <c r="G12" s="29">
@@ -1956,7 +3576,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>557.40000000000009</v>
       </c>
       <c r="G13" s="29">
@@ -1981,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>299.8</v>
       </c>
       <c r="G14" s="29">
@@ -2006,7 +3626,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>790.80000000000007</v>
       </c>
       <c r="G15" s="29">
@@ -2031,7 +3651,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>1048.5</v>
       </c>
       <c r="G16" s="29">
@@ -2056,7 +3676,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>921.7</v>
       </c>
       <c r="G17" s="29">
@@ -2081,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>399.8</v>
       </c>
       <c r="G18" s="29">
@@ -2106,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>249.9</v>
       </c>
       <c r="G19" s="29">
@@ -2131,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>0</v>
       </c>
       <c r="G20" s="29">
@@ -2156,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>259.89999999999998</v>
       </c>
       <c r="G21" s="29">
@@ -2181,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>438.9</v>
       </c>
       <c r="G22" s="29">
@@ -2206,7 +3826,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="22">
-        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde.]]</f>
+        <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>1047.8999999999999</v>
       </c>
       <c r="G23" s="29">
@@ -2222,7 +3842,7 @@
         <v>2983.0000000000009</v>
       </c>
       <c r="E24" s="1">
-        <f>SUBTOTAL(109,Tabela3[Qtde.])</f>
+        <f>SUBTOTAL(109,Tabela3[Qtde])</f>
         <v>132</v>
       </c>
       <c r="F24" s="29">

--- a/01-Produtos.xlsx
+++ b/01-Produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Meu Drive (mz.tears.of.time@gmail.com)\Front - Back\Curso-003\001 - Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DC8017-D78D-4C26-9D20-149EC9D42681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E145AD-92F5-4844-8B9F-2453FEA24D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="23070" windowHeight="11505" activeTab="2" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="23070" windowHeight="11505" activeTab="3" xr2:uid="{D1AB1EC9-71FA-412A-B8FE-746C2A8742A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
   <si>
     <t>Bermuda</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Desconto</t>
   </si>
   <si>
-    <t>Valor do Desconto</t>
-  </si>
-  <si>
     <t>Qtde</t>
   </si>
   <si>
@@ -143,6 +140,18 @@
   </si>
   <si>
     <t>Layout Rapido</t>
+  </si>
+  <si>
+    <t>Preço c/ Desconto</t>
+  </si>
+  <si>
+    <t>Valor do DescontoTotal</t>
+  </si>
+  <si>
+    <t>Preço C/ Desconto</t>
+  </si>
+  <si>
+    <t>Valor Desconto Total</t>
   </si>
 </sst>
 </file>
@@ -644,6 +653,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -653,15 +664,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -677,6 +690,9 @@
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -687,7 +703,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -829,27 +844,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1856,7 +1851,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rafa RPG" refreshedDate="45465.701305092596" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{84BDBEC6-9621-4193-B194-892E94979D5B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:G23" sheet="Produtos"/>
+    <worksheetSource ref="A3:H23" sheet="Produtos"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Produtos" numFmtId="0">
@@ -2086,7 +2081,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBDBE488-3B1B-40A8-A9CB-84B68462659D}" name="Tabela dinâmica17" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EBDBE488-3B1B-40A8-A9CB-84B68462659D}" name="Tabela dinâmica17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2216,19 +2211,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5C2F-2ED0-4132-A755-33287BFED071}" name="Tabela3" displayName="Tabela3" ref="A3:G24" totalsRowCount="1" headerRowDxfId="12">
-  <autoFilter ref="A3:G23" xr:uid="{DD085341-96D5-448C-ACB6-B9B20E85FF90}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B3BB856A-94C5-4DBF-A426-729A6175E54C}" name="Produtos" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{57EE2957-B617-4F1F-99BF-A943B55BA5EF}" name="Tamanho" dataDxfId="11" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3EC27319-A449-4A3F-BC2A-10D434BF2077}" name="Categoria" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A4DC478E-BD53-452B-A86C-6BBB49DC23EB}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D884E988-6577-4BED-AA7D-358FDCE039D6}" name="Valor Total" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5C2F-2ED0-4132-A755-33287BFED071}" name="Tabela3" displayName="Tabela3" ref="A3:H24" totalsRowCount="1" headerRowDxfId="14">
+  <autoFilter ref="A3:H23" xr:uid="{DD085341-96D5-448C-ACB6-B9B20E85FF90}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B3BB856A-94C5-4DBF-A426-729A6175E54C}" name="Produtos" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{57EE2957-B617-4F1F-99BF-A943B55BA5EF}" name="Tamanho" dataDxfId="13" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3EC27319-A449-4A3F-BC2A-10D434BF2077}" name="Categoria" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A4DC478E-BD53-452B-A86C-6BBB49DC23EB}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{EE3B769A-D813-4769-948F-240A6BB92138}" name="Preço C/ Desconto" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="4">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{DFA69D81-EF82-4249-9B1C-2E6D4A2555E8}" name="Qtde" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D884E988-6577-4BED-AA7D-358FDCE039D6}" name="Valor Total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FC1C4EC2-D807-40BF-ABDA-2A64A12A1AC9}" name="Valor do Desconto" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0">
-      <calculatedColumnFormula>Tabela3[[#This Row],[Valor Total]]*$I$4</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{FC1C4EC2-D807-40BF-ABDA-2A64A12A1AC9}" name="Valor Desconto Total" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+      <calculatedColumnFormula>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2532,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E7D90-B6FA-4067-AF2F-B7057AE08EDA}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" activeCellId="1" sqref="A3:A23 E3:E23"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,24 +2542,26 @@
     <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2569,8 +2569,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
@@ -2584,19 +2585,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -2609,22 +2613,26 @@
       <c r="D4" s="19">
         <v>25.9</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
+        <f>D4-(D4*$J$4)</f>
+        <v>24.604999999999997</v>
+      </c>
+      <c r="F4" s="20">
         <v>12</v>
       </c>
-      <c r="F4" s="19">
-        <f>D4*E4</f>
+      <c r="G4" s="19">
+        <f>D4*F4</f>
         <v>310.79999999999995</v>
       </c>
-      <c r="G4" s="19">
-        <f>F4*$I$4</f>
-        <v>15.54</v>
-      </c>
-      <c r="I4" s="33">
+      <c r="H4" s="19">
+        <f>E4*F4</f>
+        <v>295.26</v>
+      </c>
+      <c r="J4" s="33">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2637,19 +2645,23 @@
       <c r="D5" s="18">
         <v>29.9</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
+        <f t="shared" ref="E5:E23" si="0">D5-(D5*$J$4)</f>
+        <v>28.404999999999998</v>
+      </c>
+      <c r="F5" s="21">
         <v>10</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" ref="F5:F23" si="0">D5*E5</f>
+      <c r="G5" s="19">
+        <f>D5*F5</f>
         <v>299</v>
       </c>
-      <c r="G5" s="19">
-        <f t="shared" ref="G5:G23" si="1">F5*$I$4</f>
-        <v>14.950000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="19">
+        <f t="shared" ref="H5:H23" si="1">E5*F5</f>
+        <v>284.04999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2662,19 +2674,23 @@
       <c r="D6" s="18">
         <v>32.9</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
+        <f t="shared" si="0"/>
+        <v>31.254999999999999</v>
+      </c>
+      <c r="F6" s="21">
         <v>6</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="0"/>
+      <c r="G6" s="19">
+        <f>D6*F6</f>
         <v>197.39999999999998</v>
       </c>
-      <c r="G6" s="19">
+      <c r="H6" s="19">
         <f t="shared" si="1"/>
-        <v>9.8699999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>187.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2687,19 +2703,23 @@
       <c r="D7" s="18">
         <v>399.9</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
+        <v>379.90499999999997</v>
+      </c>
+      <c r="F7" s="21">
         <v>3</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="0"/>
+      <c r="G7" s="19">
+        <f>D7*F7</f>
         <v>1199.6999999999998</v>
       </c>
-      <c r="G7" s="19">
+      <c r="H7" s="19">
         <f t="shared" si="1"/>
-        <v>59.984999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1139.7149999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2712,19 +2732,23 @@
       <c r="D8" s="18">
         <v>249.9</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>237.405</v>
+      </c>
+      <c r="F8" s="21">
         <v>1</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="0"/>
+      <c r="G8" s="19">
+        <f>D8*F8</f>
         <v>249.9</v>
       </c>
-      <c r="G8" s="19">
+      <c r="H8" s="19">
         <f t="shared" si="1"/>
-        <v>12.495000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>237.405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2737,19 +2761,23 @@
       <c r="D9" s="18">
         <v>259.89999999999998</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>246.90499999999997</v>
+      </c>
+      <c r="F9" s="21">
         <v>2</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="0"/>
+      <c r="G9" s="19">
+        <f>D9*F9</f>
         <v>519.79999999999995</v>
       </c>
-      <c r="G9" s="19">
+      <c r="H9" s="19">
         <f t="shared" si="1"/>
-        <v>25.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>493.80999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -2762,19 +2790,23 @@
       <c r="D10" s="18">
         <v>299.89999999999998</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>284.90499999999997</v>
+      </c>
+      <c r="F10" s="21">
         <v>1</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="0"/>
+      <c r="G10" s="19">
+        <f>D10*F10</f>
         <v>299.89999999999998</v>
       </c>
-      <c r="G10" s="19">
+      <c r="H10" s="19">
         <f t="shared" si="1"/>
-        <v>14.994999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>284.90499999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -2787,19 +2819,23 @@
       <c r="D11" s="18">
         <v>85.9</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>81.605000000000004</v>
+      </c>
+      <c r="F11" s="21">
         <v>8</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="0"/>
+      <c r="G11" s="19">
+        <f>D11*F11</f>
         <v>687.2</v>
       </c>
-      <c r="G11" s="19">
+      <c r="H11" s="19">
         <f t="shared" si="1"/>
-        <v>34.360000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>652.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -2812,19 +2848,23 @@
       <c r="D12" s="18">
         <v>89.9</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>85.405000000000001</v>
+      </c>
+      <c r="F12" s="21">
         <v>5</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="0"/>
+      <c r="G12" s="19">
+        <f>D12*F12</f>
         <v>449.5</v>
       </c>
-      <c r="G12" s="19">
+      <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>22.475000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>427.02499999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -2837,19 +2877,23 @@
       <c r="D13" s="18">
         <v>92.9</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>88.25500000000001</v>
+      </c>
+      <c r="F13" s="21">
         <v>6</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="0"/>
+      <c r="G13" s="19">
+        <f>D13*F13</f>
         <v>557.40000000000009</v>
       </c>
-      <c r="G13" s="19">
+      <c r="H13" s="19">
         <f t="shared" si="1"/>
-        <v>27.870000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>529.53000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2862,19 +2906,23 @@
       <c r="D14" s="18">
         <v>149.9</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>142.405</v>
+      </c>
+      <c r="F14" s="21">
         <v>2</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="0"/>
+      <c r="G14" s="19">
+        <f>D14*F14</f>
         <v>299.8</v>
       </c>
-      <c r="G14" s="19">
+      <c r="H14" s="19">
         <f t="shared" si="1"/>
-        <v>14.990000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>284.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
@@ -2887,19 +2935,23 @@
       <c r="D15" s="18">
         <v>65.900000000000006</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>62.605000000000004</v>
+      </c>
+      <c r="F15" s="21">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
-        <f t="shared" si="0"/>
+      <c r="G15" s="19">
+        <f>D15*F15</f>
         <v>790.80000000000007</v>
       </c>
-      <c r="G15" s="19">
+      <c r="H15" s="19">
         <f t="shared" si="1"/>
-        <v>39.540000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>751.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
@@ -2912,19 +2964,23 @@
       <c r="D16" s="18">
         <v>69.900000000000006</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>66.405000000000001</v>
+      </c>
+      <c r="F16" s="21">
         <v>15</v>
       </c>
-      <c r="F16" s="19">
-        <f t="shared" si="0"/>
+      <c r="G16" s="19">
+        <f>D16*F16</f>
         <v>1048.5</v>
       </c>
-      <c r="G16" s="19">
+      <c r="H16" s="19">
         <f t="shared" si="1"/>
-        <v>52.425000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>996.07500000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -2937,19 +2993,23 @@
       <c r="D17" s="18">
         <v>70.900000000000006</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>67.355000000000004</v>
+      </c>
+      <c r="F17" s="21">
         <v>13</v>
       </c>
-      <c r="F17" s="19">
-        <f t="shared" si="0"/>
+      <c r="G17" s="19">
+        <f>D17*F17</f>
         <v>921.7</v>
       </c>
-      <c r="G17" s="19">
+      <c r="H17" s="19">
         <f t="shared" si="1"/>
-        <v>46.085000000000008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>875.61500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1</v>
       </c>
@@ -2962,19 +3022,23 @@
       <c r="D18" s="18">
         <v>199.9</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>189.905</v>
+      </c>
+      <c r="F18" s="21">
         <v>2</v>
       </c>
-      <c r="F18" s="19">
-        <f t="shared" si="0"/>
+      <c r="G18" s="19">
+        <f>D18*F18</f>
         <v>399.8</v>
       </c>
-      <c r="G18" s="19">
+      <c r="H18" s="19">
         <f t="shared" si="1"/>
-        <v>19.990000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>379.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -2987,19 +3051,23 @@
       <c r="D19" s="18">
         <v>249.9</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>237.405</v>
+      </c>
+      <c r="F19" s="21">
         <v>1</v>
       </c>
-      <c r="F19" s="19">
-        <f t="shared" si="0"/>
+      <c r="G19" s="19">
+        <f>D19*F19</f>
         <v>249.9</v>
       </c>
-      <c r="G19" s="19">
+      <c r="H19" s="19">
         <f t="shared" si="1"/>
-        <v>12.495000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>237.405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1</v>
       </c>
@@ -3012,19 +3080,23 @@
       <c r="D20" s="18">
         <v>259.89999999999998</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>246.90499999999997</v>
+      </c>
+      <c r="F20" s="21">
         <v>0</v>
       </c>
-      <c r="F20" s="19">
-        <f t="shared" si="0"/>
+      <c r="G20" s="19">
+        <f>D20*F20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="19">
+      <c r="H20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
@@ -3037,19 +3109,23 @@
       <c r="D21" s="18">
         <v>259.89999999999998</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>246.90499999999997</v>
+      </c>
+      <c r="F21" s="21">
         <v>1</v>
       </c>
-      <c r="F21" s="19">
-        <f t="shared" si="0"/>
+      <c r="G21" s="19">
+        <f>D21*F21</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G21" s="19">
+      <c r="H21" s="19">
         <f t="shared" si="1"/>
-        <v>12.994999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>246.90499999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
@@ -3062,19 +3138,23 @@
       <c r="D22" s="18">
         <v>39.9</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
+        <v>37.905000000000001</v>
+      </c>
+      <c r="F22" s="21">
         <v>11</v>
       </c>
-      <c r="F22" s="19">
-        <f t="shared" si="0"/>
+      <c r="G22" s="19">
+        <f>D22*F22</f>
         <v>438.9</v>
       </c>
-      <c r="G22" s="19">
+      <c r="H22" s="19">
         <f t="shared" si="1"/>
-        <v>21.945</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>416.95500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
@@ -3087,19 +3167,23 @@
       <c r="D23" s="23">
         <v>49.9</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="19">
+        <f t="shared" si="0"/>
+        <v>47.405000000000001</v>
+      </c>
+      <c r="F23" s="24">
         <v>21</v>
       </c>
-      <c r="F23" s="25">
-        <f t="shared" si="0"/>
+      <c r="G23" s="25">
+        <f>D23*F23</f>
         <v>1047.8999999999999</v>
       </c>
-      <c r="G23" s="19">
+      <c r="H23" s="19">
         <f t="shared" si="1"/>
-        <v>52.394999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>995.505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3107,39 +3191,45 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="26">
         <f>SUM(D4:D23)</f>
         <v>2983.0000000000009</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="28">
         <f>SUM(E4:E23)</f>
+        <v>2833.8500000000004</v>
+      </c>
+      <c r="F25" s="27">
+        <f>SUM(F4:F23)</f>
         <v>132</v>
-      </c>
-      <c r="F25" s="28">
-        <f>SUM(F4:F23)</f>
-        <v>10227.799999999999</v>
       </c>
       <c r="G25" s="28">
         <f>SUM(G4:G23)</f>
-        <v>511.39000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10227.799999999999</v>
+      </c>
+      <c r="H25" s="28">
+        <f>SUM(H4:H23)</f>
+        <v>9716.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3150,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9AE3DD-79DC-4C6F-86EE-0CA56541D5E9}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3161,51 +3251,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="35">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="35">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="35">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="35">
         <v>19</v>
       </c>
     </row>
@@ -3213,7 +3303,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="35">
         <v>28</v>
       </c>
     </row>
@@ -3221,7 +3311,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="35">
         <v>21</v>
       </c>
     </row>
@@ -3229,7 +3319,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
     </row>
@@ -3237,7 +3327,7 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="35">
         <v>3</v>
       </c>
     </row>
@@ -3245,7 +3335,7 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="35">
         <v>3</v>
       </c>
     </row>
@@ -3253,7 +3343,7 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="35">
         <v>2</v>
       </c>
     </row>
@@ -3267,10 +3357,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" activeCellId="1" sqref="A3:A23 E3:E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,24 +3369,25 @@
     <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3304,8 +3395,9 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -3319,19 +3411,22 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3344,22 +3439,26 @@
       <c r="D4" s="22">
         <v>25.9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>24.604999999999997</v>
+      </c>
+      <c r="F4" s="1">
         <v>12</v>
       </c>
-      <c r="F4" s="22">
+      <c r="G4" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>310.79999999999995</v>
       </c>
-      <c r="G4" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>15.54</v>
-      </c>
-      <c r="I4" s="31">
+      <c r="H4" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>295.26</v>
+      </c>
+      <c r="J4" s="31">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3372,19 +3471,23 @@
       <c r="D5" s="22">
         <v>29.9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>28.404999999999998</v>
+      </c>
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="22">
+      <c r="G5" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>299</v>
       </c>
-      <c r="G5" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>14.950000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>284.04999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3397,19 +3500,23 @@
       <c r="D6" s="22">
         <v>32.9</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>31.254999999999999</v>
+      </c>
+      <c r="F6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G6" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>197.39999999999998</v>
       </c>
-      <c r="G6" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>9.8699999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>187.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3422,19 +3529,23 @@
       <c r="D7" s="22">
         <v>399.9</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>379.90499999999997</v>
+      </c>
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="22">
+      <c r="G7" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>1199.6999999999998</v>
       </c>
-      <c r="G7" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>59.984999999999992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>1139.7149999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3447,19 +3558,23 @@
       <c r="D8" s="22">
         <v>249.9</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>237.405</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="22">
+      <c r="G8" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>249.9</v>
       </c>
-      <c r="G8" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>12.495000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>237.405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3472,19 +3587,23 @@
       <c r="D9" s="22">
         <v>259.89999999999998</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>246.90499999999997</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="22">
+      <c r="G9" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>519.79999999999995</v>
       </c>
-      <c r="G9" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>25.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>493.80999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3497,19 +3616,23 @@
       <c r="D10" s="22">
         <v>299.89999999999998</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>284.90499999999997</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="22">
+      <c r="G10" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>299.89999999999998</v>
       </c>
-      <c r="G10" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>14.994999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>284.90499999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3522,19 +3645,23 @@
       <c r="D11" s="22">
         <v>85.9</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>81.605000000000004</v>
+      </c>
+      <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="F11" s="22">
+      <c r="G11" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>687.2</v>
       </c>
-      <c r="G11" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>34.360000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>652.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3547,19 +3674,23 @@
       <c r="D12" s="22">
         <v>89.9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>85.405000000000001</v>
+      </c>
+      <c r="F12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="22">
+      <c r="G12" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>449.5</v>
       </c>
-      <c r="G12" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>22.475000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>427.02499999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3572,19 +3703,23 @@
       <c r="D13" s="22">
         <v>92.9</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>88.25500000000001</v>
+      </c>
+      <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="22">
+      <c r="G13" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>557.40000000000009</v>
       </c>
-      <c r="G13" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>27.870000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>529.53000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3597,19 +3732,23 @@
       <c r="D14" s="22">
         <v>149.9</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>142.405</v>
+      </c>
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="22">
+      <c r="G14" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>299.8</v>
       </c>
-      <c r="G14" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>14.990000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>284.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3622,19 +3761,23 @@
       <c r="D15" s="22">
         <v>65.900000000000006</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>62.605000000000004</v>
+      </c>
+      <c r="F15" s="1">
         <v>12</v>
       </c>
-      <c r="F15" s="22">
+      <c r="G15" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>790.80000000000007</v>
       </c>
-      <c r="G15" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>39.540000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>751.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3647,19 +3790,23 @@
       <c r="D16" s="22">
         <v>69.900000000000006</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>66.405000000000001</v>
+      </c>
+      <c r="F16" s="1">
         <v>15</v>
       </c>
-      <c r="F16" s="22">
+      <c r="G16" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>1048.5</v>
       </c>
-      <c r="G16" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>52.425000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>996.07500000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3672,19 +3819,23 @@
       <c r="D17" s="22">
         <v>70.900000000000006</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>67.355000000000004</v>
+      </c>
+      <c r="F17" s="1">
         <v>13</v>
       </c>
-      <c r="F17" s="22">
+      <c r="G17" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>921.7</v>
       </c>
-      <c r="G17" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>46.085000000000008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>875.61500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -3697,19 +3848,23 @@
       <c r="D18" s="22">
         <v>199.9</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>189.905</v>
+      </c>
+      <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="22">
+      <c r="G18" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>399.8</v>
       </c>
-      <c r="G18" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>19.990000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>379.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -3722,19 +3877,23 @@
       <c r="D19" s="22">
         <v>249.9</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>237.405</v>
+      </c>
+      <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="22">
+      <c r="G19" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>249.9</v>
       </c>
-      <c r="G19" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>12.495000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>237.405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -3747,19 +3906,23 @@
       <c r="D20" s="22">
         <v>259.89999999999998</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>246.90499999999997</v>
+      </c>
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="22">
+      <c r="G20" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>0</v>
       </c>
-      <c r="G20" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
+      <c r="H20" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -3772,19 +3935,23 @@
       <c r="D21" s="22">
         <v>259.89999999999998</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>246.90499999999997</v>
+      </c>
+      <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="22">
+      <c r="G21" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>259.89999999999998</v>
       </c>
-      <c r="G21" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>12.994999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>246.90499999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3797,19 +3964,23 @@
       <c r="D22" s="22">
         <v>39.9</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>37.905000000000001</v>
+      </c>
+      <c r="F22" s="1">
         <v>11</v>
       </c>
-      <c r="F22" s="22">
+      <c r="G22" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>438.9</v>
       </c>
-      <c r="G22" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>21.945</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>416.95500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3822,41 +3993,49 @@
       <c r="D23" s="22">
         <v>49.9</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="22">
+        <f>Tabela3[[#This Row],[Preço Unitário]]-(Tabela3[[#This Row],[Preço Unitário]]*$J$4)</f>
+        <v>47.405000000000001</v>
+      </c>
+      <c r="F23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="22">
+      <c r="G23" s="22">
         <f>Tabela3[[#This Row],[Preço Unitário]]*Tabela3[[#This Row],[Qtde]]</f>
         <v>1047.8999999999999</v>
       </c>
-      <c r="G23" s="29">
-        <f>Tabela3[[#This Row],[Valor Total]]*$I$4</f>
-        <v>52.394999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="29">
+        <f>Tabela3[[#This Row],[Preço C/ Desconto]]*Tabela3[[#This Row],[Qtde]]</f>
+        <v>995.505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="22">
         <f>SUBTOTAL(109,Tabela3[Preço Unitário])</f>
         <v>2983.0000000000009</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="22">
+        <f>SUBTOTAL(109,Tabela3[Preço C/ Desconto])</f>
+        <v>2833.8500000000004</v>
+      </c>
+      <c r="F24" s="1">
         <f>SUBTOTAL(109,Tabela3[Qtde])</f>
         <v>132</v>
       </c>
-      <c r="F24" s="29">
+      <c r="G24" s="29">
         <f>SUBTOTAL(109,Tabela3[Valor Total])</f>
         <v>10227.799999999999</v>
       </c>
-      <c r="G24" s="29">
-        <f>SUBTOTAL(109,Tabela3[Valor do Desconto])</f>
-        <v>511.39000000000004</v>
+      <c r="H24" s="29">
+        <f>SUBTOTAL(109,Tabela3[Valor Desconto Total])</f>
+        <v>9716.41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
